--- a/Data/RV1_EUR-CHF average annual exchange rate.xlsx
+++ b/Data/RV1_EUR-CHF average annual exchange rate.xlsx
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -450,145 +450,73 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="B2" s="3">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="B3" s="3">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="B4" s="3">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="B5" s="3">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="B6" s="3">
-        <v>1.52</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="B7" s="3">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="B8" s="3">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="B9" s="3">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="B10" s="3">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B19" s="3">
         <v>1.0900000000000001</v>
       </c>
     </row>

--- a/Data/RV1_EUR-CHF average annual exchange rate.xlsx
+++ b/Data/RV1_EUR-CHF average annual exchange rate.xlsx
@@ -78,13 +78,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -440,83 +440,67 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="C2" s="2">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="D2" s="2">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="E2" s="2">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="F2" s="2">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="G2" s="2">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="H2" s="2">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="I2" s="2">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="J2" s="2">
         <v>1.0900000000000001</v>
       </c>
     </row>
